--- a/results/multi.xlsx
+++ b/results/multi.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,15 +527,13 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>indigenous people</t>
+          <t>Jews</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" s="2" t="n">
-        <v>74.58</v>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -546,103 +544,105 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>indigenous people</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" s="2" t="n">
-        <v>65.02</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" s="2" t="n">
-        <v>93.14500000000001</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>67.98</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" s="2" t="n">
+        <v>74.58</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" s="2" t="n">
-        <v>66.73</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>78.20999999999999</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>jews</t>
+          <t>all</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" s="2" t="n">
+        <v>65.02</v>
+      </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" s="2" t="n">
+        <v>93.14500000000001</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>67.98</v>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" s="2" t="n">
-        <v>74.23</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>66.73</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>78.20999999999999</v>
+      </c>
       <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>gay people</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>76.52</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>87.67</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>67.34</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>94.69</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>78.22</v>
-      </c>
+          <t>jews</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" s="2" t="n">
-        <v>72.23</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>72.51000000000001</v>
-      </c>
+        <v>74.23</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>asian people</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>gay people</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>76.52</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>87.67</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>67.34</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>94.69</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>78.22</v>
+      </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="I7" s="2" t="n">
+        <v>72.23</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>72.51000000000001</v>
+      </c>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>immigrant</t>
+          <t>asian people</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -659,97 +659,95 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>immigrant</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" s="2" t="n">
-        <v>95.31</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" s="2" t="n">
-        <v>76.11</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>74.09999999999999</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Muslims</t>
+          <t>women</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" s="2" t="n">
-        <v>79.13</v>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" s="2" t="n">
-        <v>91.68000000000001</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>75.52</v>
-      </c>
+        <v>95.31</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" s="2" t="n">
+        <v>76.11</v>
+      </c>
       <c r="J10" s="2" t="n">
-        <v>80.92</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>immigrants</t>
+          <t>Muslims</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="n">
-        <v>67.81999999999999</v>
+        <v>79.13</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" s="2" t="n">
-        <v>67.51000000000001</v>
-      </c>
+      <c r="F11" s="2" t="n">
+        <v>91.68000000000001</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>75.52</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" s="2" t="n">
-        <v>66.98999999999999</v>
-      </c>
+      <c r="J11" s="2" t="n">
+        <v>80.92</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>foreigners</t>
+          <t>immigrants</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="2" t="n">
+        <v>67.81999999999999</v>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" s="2" t="n">
+        <v>67.51000000000001</v>
+      </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" s="2" t="n">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" s="2" t="n">
+        <v>66.98999999999999</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>jewish people</t>
+          <t>foreigners</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -760,93 +758,112 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" s="2" t="n">
+        <v>82.59999999999999</v>
+      </c>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>disabled people</t>
+          <t>jewish people</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" s="2" t="n">
-        <v>83.95</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>73.86</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>73.64</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>96.56999999999999</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>76.73999999999999</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>78.62</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>82.02</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>81.23999999999999</v>
-      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>refugees</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>76.94</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+          <t>disabled people</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" s="2" t="n">
+        <v>83.95</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>73.86</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>73.64</v>
+      </c>
       <c r="F15" s="2" t="n">
-        <v>95.52500000000001</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+        <v>96.56999999999999</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>76.73999999999999</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>78.62</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>82.02</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>81.23999999999999</v>
+      </c>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
+          <t>refugees</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>76.94</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" s="2" t="n">
+        <v>95.52500000000001</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
           <t>trans people</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B17" s="2" t="n">
         <v>76.45</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" s="2" t="n">
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" s="2" t="n">
         <v>56.79</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E17" s="2" t="n">
         <v>61.86</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F17" s="2" t="n">
         <v>93.47499999999999</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" s="2" t="n">
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" s="2" t="n">
         <v>77.89</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I17" s="2" t="n">
         <v>66.54000000000001</v>
       </c>
-      <c r="J16" s="2" t="n">
+      <c r="J17" s="2" t="n">
         <v>76.485</v>
       </c>
-      <c r="K16" s="2" t="n">
+      <c r="K17" s="2" t="n">
         <v>83.51000000000001</v>
       </c>
     </row>
